--- a/langrensha.xlsx
+++ b/langrensha.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -388,6 +388,9 @@
         <v>bundleID</v>
       </c>
       <c r="E1" t="str">
+        <v>appId</v>
+      </c>
+      <c r="F1" t="str">
         <v>下载量</v>
       </c>
     </row>
@@ -396,37 +399,85 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>萌萌狼人杀</v>
+        <v>狼人杀-有点烧脑的社交推理游戏</v>
       </c>
       <c r="C2" t="str">
-        <v>北京触讯科技有限公司</v>
+        <v>Jiang Cheng</v>
       </c>
       <c r="D2" t="str">
-        <v>com.qihoo360.huajiaolangrensha</v>
+        <v>com.c2vl.kgamebox</v>
       </c>
       <c r="E2" t="str">
-        <v>400,987</v>
+        <v>1126393139</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <v>2</v>
       </c>
+      <c r="B3" t="str">
+        <v>欢乐狼人杀-快乐大本营推荐游戏</v>
+      </c>
+      <c r="C3" t="str">
+        <v>珠海多玩信息技术有限公司</v>
+      </c>
+      <c r="D3" t="str">
+        <v>com.yy.makefriends</v>
+      </c>
+      <c r="E3" t="str">
+        <v>952670623</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v>3</v>
       </c>
+      <c r="B4" t="str">
+        <v>天天狼人杀-我是预言家</v>
+      </c>
+      <c r="C4" t="str">
+        <v>LIN ZHAO</v>
+      </c>
+      <c r="D4" t="str">
+        <v>sdbean.MegaWerewolf</v>
+      </c>
+      <c r="E4" t="str">
+        <v>1156715399</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
         <v>4</v>
       </c>
+      <c r="B5" t="str">
+        <v>饭局狼人杀-颜如晶代言，饭局的诱惑官方游戏</v>
+      </c>
+      <c r="C5" t="str">
+        <v>爱米未科技</v>
+      </c>
+      <c r="D5" t="str">
+        <v>com.mewe.party</v>
+      </c>
+      <c r="E5" t="str">
+        <v>1228038936</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
         <v>5</v>
       </c>
+      <c r="B6" t="str">
+        <v>天黑狼人杀—有点烧脑的语音交友狼人杀游戏</v>
+      </c>
+      <c r="C6" t="str">
+        <v>shenpeng ye</v>
+      </c>
+      <c r="D6" t="str">
+        <v>com.yyhd.happywolf</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1211948109</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">

--- a/langrensha.xlsx
+++ b/langrensha.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:E21"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -388,9 +388,6 @@
         <v>bundleID</v>
       </c>
       <c r="E1" t="str">
-        <v>appId</v>
-      </c>
-      <c r="F1" t="str">
         <v>下载量</v>
       </c>
     </row>
@@ -399,16 +396,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>狼人杀-有点烧脑的社交推理游戏</v>
+        <v>萌萌狼人杀</v>
       </c>
       <c r="C2" t="str">
-        <v>Jiang Cheng</v>
+        <v>北京触讯科技有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>com.c2vl.kgamebox</v>
+        <v>com.qihoo360.huajiaolangrensha</v>
       </c>
       <c r="E2" t="str">
-        <v>1126393139</v>
+        <v>400,989</v>
       </c>
     </row>
     <row r="3">
@@ -416,16 +413,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>欢乐狼人杀-快乐大本营推荐游戏</v>
+        <v>狼人杀</v>
       </c>
       <c r="C3" t="str">
-        <v>珠海多玩信息技术有限公司</v>
+        <v>上海假面信息科技有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>com.yy.makefriends</v>
+        <v>com.c2vl.kgamebox</v>
       </c>
       <c r="E3" t="str">
-        <v>952670623</v>
+        <v>49,126,991</v>
       </c>
     </row>
     <row r="4">
@@ -433,16 +430,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>天天狼人杀-我是预言家</v>
+        <v>狼人杀世界</v>
       </c>
       <c r="C4" t="str">
-        <v>LIN ZHAO</v>
+        <v>南京天文爱好者科技有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>sdbean.MegaWerewolf</v>
+        <v>com.v5.werewolfkill</v>
       </c>
       <c r="E4" t="str">
-        <v>1156715399</v>
+        <v>2,575,905</v>
       </c>
     </row>
     <row r="5">
@@ -450,16 +447,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>饭局狼人杀-颜如晶代言，饭局的诱惑官方游戏</v>
+        <v>狼人杀</v>
       </c>
       <c r="C5" t="str">
-        <v>爱米未科技</v>
+        <v>北京默契破冰科技有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>com.mewe.party</v>
+        <v>com.wodidashi.wolf</v>
       </c>
       <c r="E5" t="str">
-        <v>1228038936</v>
+        <v>35,546,941</v>
       </c>
     </row>
     <row r="6">
@@ -467,16 +464,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>天黑狼人杀—有点烧脑的语音交友狼人杀游戏</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C6" t="str">
-        <v>shenpeng ye</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D6" t="str">
-        <v>com.yyhd.happywolf</v>
+        <v>cn.ss911.android.mi</v>
       </c>
       <c r="E6" t="str">
-        <v>1211948109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">

--- a/langrensha.xlsx
+++ b/langrensha.xlsx
@@ -396,7 +396,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>萌萌狼人杀</v>
+        <v>花椒狼人杀</v>
       </c>
       <c r="C2" t="str">
         <v>北京触讯科技有限公司</v>
@@ -405,7 +405,7 @@
         <v>com.qihoo360.huajiaolangrensha</v>
       </c>
       <c r="E2" t="str">
-        <v>400,989</v>
+        <v>409,755</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         <v>com.wodidashi.wolf</v>
       </c>
       <c r="E5" t="str">
-        <v>35,546,941</v>
+        <v>35,558,697</v>
       </c>
     </row>
     <row r="6">
@@ -464,10 +464,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v xml:space="preserve"> </v>
+        <v>推理学院-狼人杀</v>
       </c>
       <c r="C6" t="str">
-        <v xml:space="preserve"> </v>
+        <v>重庆海游科技有限公司</v>
       </c>
       <c r="D6" t="str">
         <v>cn.ss911.android.mi</v>
@@ -480,76 +480,184 @@
       <c r="A7" t="str">
         <v>6</v>
       </c>
+      <c r="B7" t="str">
+        <v>快恋爱</v>
+      </c>
+      <c r="C7" t="str">
+        <v>优视网乐科技（北京）有限公司</v>
+      </c>
+      <c r="D7" t="str">
+        <v>com.kuailianai.main</v>
+      </c>
+      <c r="E7" t="str">
+        <v>5,987,104</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
         <v>7</v>
       </c>
+      <c r="B8" t="str">
+        <v>欢乐狼人杀</v>
+      </c>
+      <c r="C8" t="str">
+        <v>广州华多网络科技有限公司</v>
+      </c>
+      <c r="D8" t="str">
+        <v>com.duowan.makefriends</v>
+      </c>
+      <c r="E8" t="str">
+        <v>32,439,276</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
         <v>8</v>
       </c>
+      <c r="B9" t="str">
+        <v>狼人杀声优版</v>
+      </c>
+      <c r="C9" t="str">
+        <v>杭州动趣网络科技有限公司</v>
+      </c>
+      <c r="D9" t="str">
+        <v>com.xys.wolfkill</v>
+      </c>
+      <c r="E9" t="str">
+        <v>1,680,184</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <v>9</v>
       </c>
+      <c r="B10" t="str">
+        <v>谁是卧底</v>
+      </c>
+      <c r="C10" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
         <v>10</v>
       </c>
+      <c r="B11" t="str">
+        <v>狼人杀</v>
+      </c>
+      <c r="C11" t="str">
+        <v>锦州鑫钟传媒科技有限公司</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <v>11</v>
       </c>
+      <c r="B12" t="str">
+        <v>天黑狼人杀</v>
+      </c>
+      <c r="C12" t="str">
+        <v>好美信息技术（北京）有限公司</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
         <v>12</v>
       </c>
+      <c r="B13" t="str">
+        <v>狼人杀</v>
+      </c>
+      <c r="C13" t="str">
+        <v>明日世界竞技体育发展有限公司</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <v>13</v>
       </c>
+      <c r="B14" t="str">
+        <v>狼人杀</v>
+      </c>
+      <c r="C14" t="str">
+        <v>北京桌游华夏网络科技有限公司</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
         <v>14</v>
       </c>
+      <c r="B15" t="str">
+        <v>推理学院(狼人杀)</v>
+      </c>
+      <c r="C15" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <v>15</v>
       </c>
+      <c r="B16" t="str">
+        <v>天天狼人杀</v>
+      </c>
+      <c r="C16" t="str">
+        <v>沈阳美嘉房地产咨询有限公司</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
         <v>16</v>
       </c>
+      <c r="B17" t="str">
+        <v>世纪佳缘</v>
+      </c>
+      <c r="C17" t="str">
+        <v>上海花千树信息科技有限公司</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
         <v>17</v>
       </c>
+      <c r="B18" t="str">
+        <v>推理学院(狼人杀)</v>
+      </c>
+      <c r="C18" t="str">
+        <v>重庆海游科技有限公司</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
         <v>18</v>
       </c>
+      <c r="B19" t="str">
+        <v>谁是卧底</v>
+      </c>
+      <c r="C19" t="str">
+        <v>华录文化产业有限公司</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
         <v>19</v>
       </c>
+      <c r="B20" t="str">
+        <v>竞技狼人杀</v>
+      </c>
+      <c r="C20" t="str">
+        <v>重庆鸽了吧科技有限公司</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
         <v>20</v>
       </c>
+      <c r="B21" t="str">
+        <v>天黑请闭眼</v>
+      </c>
+      <c r="C21" t="str">
+        <v>饭团游戏</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/langrensha.xlsx
+++ b/langrensha.xlsx
@@ -396,16 +396,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>花椒狼人杀</v>
+        <v>途游五子棋</v>
       </c>
       <c r="C2" t="str">
-        <v>北京触讯科技有限公司</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D2" t="str">
-        <v>com.qihoo360.huajiaolangrensha</v>
+        <v>com.tuyoo.gomoku.main</v>
       </c>
       <c r="E2" t="str">
-        <v>409,755</v>
+        <v>921,515</v>
       </c>
     </row>
     <row r="3">
@@ -413,16 +413,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>狼人杀</v>
+        <v>不安分的棋子</v>
       </c>
       <c r="C3" t="str">
-        <v>上海假面信息科技有限公司</v>
+        <v>上海易骏网络技术有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>com.c2vl.kgamebox</v>
+        <v>com.makeapp.game.activechess</v>
       </c>
       <c r="E3" t="str">
-        <v>49,126,991</v>
+        <v>423,006</v>
       </c>
     </row>
     <row r="4">
@@ -430,16 +430,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>狼人杀世界</v>
+        <v>五子棋</v>
       </c>
       <c r="C4" t="str">
-        <v>南京天文爱好者科技有限公司</v>
+        <v>sun.j</v>
       </c>
       <c r="D4" t="str">
-        <v>com.v5.werewolfkill</v>
+        <v>com.gobang.admob</v>
       </c>
       <c r="E4" t="str">
-        <v>2,575,905</v>
+        <v>3,420,709</v>
       </c>
     </row>
     <row r="5">
@@ -447,16 +447,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>狼人杀</v>
+        <v>欢乐五子棋</v>
       </c>
       <c r="C5" t="str">
-        <v>北京默契破冰科技有限公司</v>
+        <v>李开永</v>
       </c>
       <c r="D5" t="str">
-        <v>com.wodidashi.wolf</v>
+        <v>com.rainbow.FiveZi</v>
       </c>
       <c r="E5" t="str">
-        <v>35,558,697</v>
+        <v>1,920,639</v>
       </c>
     </row>
     <row r="6">
@@ -464,16 +464,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>推理学院-狼人杀</v>
+        <v>五子棋大师</v>
       </c>
       <c r="C6" t="str">
-        <v>重庆海游科技有限公司</v>
+        <v>郭况</v>
       </c>
       <c r="D6" t="str">
-        <v>cn.ss911.android.mi</v>
+        <v>com.cnvcs.gomoku</v>
       </c>
       <c r="E6" t="str">
-        <v>0</v>
+        <v>46,544,298</v>
       </c>
     </row>
     <row r="7">
@@ -481,16 +481,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>快恋爱</v>
+        <v>五子棋</v>
       </c>
       <c r="C7" t="str">
-        <v>优视网乐科技（北京）有限公司</v>
-      </c>
-      <c r="D7" t="str">
-        <v>com.kuailianai.main</v>
-      </c>
-      <c r="E7" t="str">
-        <v>5,987,104</v>
+        <v>赣州市掌龙信息科技有限公司</v>
       </c>
     </row>
     <row r="8">
@@ -498,16 +492,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>欢乐狼人杀</v>
+        <v>五子棋(经典单机版)</v>
       </c>
       <c r="C8" t="str">
-        <v>广州华多网络科技有限公司</v>
-      </c>
-      <c r="D8" t="str">
-        <v>com.duowan.makefriends</v>
-      </c>
-      <c r="E8" t="str">
-        <v>32,439,276</v>
+        <v>深圳市东合数码科技</v>
       </c>
     </row>
     <row r="9">
@@ -515,16 +503,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>狼人杀声优版</v>
+        <v>五子棋</v>
       </c>
       <c r="C9" t="str">
-        <v>杭州动趣网络科技有限公司</v>
-      </c>
-      <c r="D9" t="str">
-        <v>com.xys.wolfkill</v>
-      </c>
-      <c r="E9" t="str">
-        <v>1,680,184</v>
+        <v>武汉市多比特信息科技有限公司</v>
       </c>
     </row>
     <row r="10">
@@ -532,10 +514,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>谁是卧底</v>
+        <v>途游五子棋（大师赛）</v>
       </c>
       <c r="C10" t="str">
-        <v xml:space="preserve"> </v>
+        <v>在线途游（北京）科技有限公司</v>
       </c>
     </row>
     <row r="11">
@@ -543,10 +525,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>狼人杀</v>
+        <v>博雅中国象棋</v>
       </c>
       <c r="C11" t="str">
-        <v>锦州鑫钟传媒科技有限公司</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="12">
@@ -554,10 +536,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>天黑狼人杀</v>
+        <v>欢乐五子棋</v>
       </c>
       <c r="C12" t="str">
-        <v>好美信息技术（北京）有限公司</v>
+        <v>腾讯</v>
       </c>
     </row>
     <row r="13">
@@ -565,10 +547,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>狼人杀</v>
+        <v>五子棋</v>
       </c>
       <c r="C13" t="str">
-        <v>明日世界竞技体育发展有限公司</v>
+        <v>谢艳</v>
       </c>
     </row>
     <row r="14">
@@ -576,10 +558,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>狼人杀</v>
+        <v>五子棋</v>
       </c>
       <c r="C14" t="str">
-        <v>北京桌游华夏网络科技有限公司</v>
+        <v>武汉市多比特信息科技有限公司</v>
       </c>
     </row>
     <row r="15">
@@ -587,10 +569,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <v>推理学院(狼人杀)</v>
+        <v>五子连珠</v>
       </c>
       <c r="C15" t="str">
-        <v xml:space="preserve"> </v>
+        <v>西安同启通讯科技有限公司</v>
       </c>
     </row>
     <row r="16">
@@ -598,10 +580,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <v>天天狼人杀</v>
+        <v>途游中国象棋</v>
       </c>
       <c r="C16" t="str">
-        <v>沈阳美嘉房地产咨询有限公司</v>
+        <v>在线途游(北京)科技有限公司</v>
       </c>
     </row>
     <row r="17">
@@ -609,10 +591,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>世纪佳缘</v>
+        <v>欢乐五子棋</v>
       </c>
       <c r="C17" t="str">
-        <v>上海花千树信息科技有限公司</v>
+        <v>杭州破晓网络科技有限公司</v>
       </c>
     </row>
     <row r="18">
@@ -620,10 +602,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v>推理学院(狼人杀)</v>
+        <v>别点白格子</v>
       </c>
       <c r="C18" t="str">
-        <v>重庆海游科技有限公司</v>
+        <v>邝锐</v>
       </c>
     </row>
     <row r="19">
@@ -631,10 +613,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>谁是卧底</v>
+        <v>全屏五子棋</v>
       </c>
       <c r="C19" t="str">
-        <v>华录文化产业有限公司</v>
+        <v>祝新春</v>
       </c>
     </row>
     <row r="20">
@@ -642,10 +624,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>竞技狼人杀</v>
+        <v>五子棋</v>
       </c>
       <c r="C20" t="str">
-        <v>重庆鸽了吧科技有限公司</v>
+        <v>董延盟</v>
       </c>
     </row>
     <row r="21">
@@ -653,10 +635,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <v>天黑请闭眼</v>
+        <v>五子棋</v>
       </c>
       <c r="C21" t="str">
-        <v>饭团游戏</v>
+        <v>dsaoneos</v>
       </c>
     </row>
   </sheetData>

--- a/langrensha.xlsx
+++ b/langrensha.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E52"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -396,16 +396,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>途游五子棋</v>
+        <v>花椒狼人杀</v>
       </c>
       <c r="C2" t="str">
-        <v xml:space="preserve"> </v>
+        <v>北京触讯科技有限公司</v>
       </c>
       <c r="D2" t="str">
-        <v>com.tuyoo.gomoku.main</v>
+        <v>com.qihoo360.huajiaolangrensha</v>
       </c>
       <c r="E2" t="str">
-        <v>921,515</v>
+        <v>434,157</v>
       </c>
     </row>
     <row r="3">
@@ -413,16 +413,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>不安分的棋子</v>
+        <v>狼人杀</v>
       </c>
       <c r="C3" t="str">
-        <v>上海易骏网络技术有限公司</v>
+        <v>上海假面信息科技有限公司</v>
       </c>
       <c r="D3" t="str">
-        <v>com.makeapp.game.activechess</v>
+        <v>com.c2vl.kgamebox</v>
       </c>
       <c r="E3" t="str">
-        <v>423,006</v>
+        <v>49,339,281</v>
       </c>
     </row>
     <row r="4">
@@ -430,16 +430,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>五子棋</v>
+        <v>狼人杀世界</v>
       </c>
       <c r="C4" t="str">
-        <v>sun.j</v>
+        <v>南京天文爱好者科技有限公司</v>
       </c>
       <c r="D4" t="str">
-        <v>com.gobang.admob</v>
+        <v>com.v5.werewolfkill</v>
       </c>
       <c r="E4" t="str">
-        <v>3,420,709</v>
+        <v>2,576,807</v>
       </c>
     </row>
     <row r="5">
@@ -447,16 +447,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>欢乐五子棋</v>
+        <v>狼人杀</v>
       </c>
       <c r="C5" t="str">
-        <v>李开永</v>
+        <v>北京默契破冰科技有限公司</v>
       </c>
       <c r="D5" t="str">
-        <v>com.rainbow.FiveZi</v>
+        <v>com.wodidashi.wolf</v>
       </c>
       <c r="E5" t="str">
-        <v>1,920,639</v>
+        <v>35,652,979</v>
       </c>
     </row>
     <row r="6">
@@ -464,16 +464,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>五子棋大师</v>
+        <v>推理学院-狼人杀</v>
       </c>
       <c r="C6" t="str">
-        <v>郭况</v>
+        <v>重庆海游科技有限公司</v>
       </c>
       <c r="D6" t="str">
-        <v>com.cnvcs.gomoku</v>
+        <v>cn.ss911.android.mi</v>
       </c>
       <c r="E6" t="str">
-        <v>46,544,298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -481,10 +481,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>五子棋</v>
+        <v>世纪佳缘</v>
       </c>
       <c r="C7" t="str">
-        <v>赣州市掌龙信息科技有限公司</v>
+        <v>上海花千树信息科技有限公司</v>
+      </c>
+      <c r="D7" t="str">
+        <v>com.jiayuan</v>
+      </c>
+      <c r="E7" t="str">
+        <v>35,033,064</v>
       </c>
     </row>
     <row r="8">
@@ -492,10 +498,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>五子棋(经典单机版)</v>
+        <v>欢乐狼人杀</v>
       </c>
       <c r="C8" t="str">
-        <v>深圳市东合数码科技</v>
+        <v>广州华多网络科技有限公司</v>
+      </c>
+      <c r="D8" t="str">
+        <v>com.duowan.makefriends</v>
+      </c>
+      <c r="E8" t="str">
+        <v>32,882,606</v>
       </c>
     </row>
     <row r="9">
@@ -503,10 +515,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>五子棋</v>
+        <v>狼人杀声优版</v>
       </c>
       <c r="C9" t="str">
-        <v>武汉市多比特信息科技有限公司</v>
+        <v>杭州动趣网络科技有限公司</v>
+      </c>
+      <c r="D9" t="str">
+        <v>com.xys.wolfkill</v>
+      </c>
+      <c r="E9" t="str">
+        <v>1,681,353</v>
       </c>
     </row>
     <row r="10">
@@ -514,10 +532,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>途游五子棋（大师赛）</v>
+        <v>谁是卧底</v>
       </c>
       <c r="C10" t="str">
-        <v>在线途游（北京）科技有限公司</v>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D10" t="str">
+        <v>com.qbankilltext.hualu.nearme.gamecenter</v>
+      </c>
+      <c r="E10" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="11">
@@ -525,10 +549,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>博雅中国象棋</v>
+        <v>谁是卧底</v>
       </c>
       <c r="C11" t="str">
         <v xml:space="preserve"> </v>
+      </c>
+      <c r="D11" t="str">
+        <v>com.qbankilltext.hualu.nearme.gamecenter</v>
+      </c>
+      <c r="E11" t="str">
+        <v>3,084,588</v>
       </c>
     </row>
     <row r="12">
@@ -536,10 +566,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>欢乐五子棋</v>
+        <v>狼人杀</v>
       </c>
       <c r="C12" t="str">
-        <v>腾讯</v>
+        <v>锦州鑫钟传媒科技有限公司</v>
+      </c>
+      <c r="D12" t="str">
+        <v>com.my.games.langrensha</v>
+      </c>
+      <c r="E12" t="str">
+        <v>5,279</v>
       </c>
     </row>
     <row r="13">
@@ -547,10 +583,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>五子棋</v>
+        <v>狼人杀</v>
       </c>
       <c r="C13" t="str">
-        <v>谢艳</v>
+        <v>北京桌游华夏网络科技有限公司</v>
+      </c>
+      <c r="D13" t="str">
+        <v>cn.quanminsha</v>
+      </c>
+      <c r="E13" t="str">
+        <v>103,297</v>
       </c>
     </row>
     <row r="14">
@@ -558,10 +600,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>五子棋</v>
+        <v>天黑狼人杀</v>
       </c>
       <c r="C14" t="str">
-        <v>武汉市多比特信息科技有限公司</v>
+        <v>好美信息技术（北京）有限公司</v>
+      </c>
+      <c r="D14" t="str">
+        <v>com.yyhd.happywolf</v>
+      </c>
+      <c r="E14" t="str">
+        <v>2,092,098</v>
       </c>
     </row>
     <row r="15">
@@ -569,10 +617,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <v>五子连珠</v>
+        <v>玩吧</v>
       </c>
       <c r="C15" t="str">
-        <v>西安同启通讯科技有限公司</v>
+        <v>北京默契破冰科技有限公司</v>
+      </c>
+      <c r="D15" t="str">
+        <v>com.wodi.who</v>
+      </c>
+      <c r="E15" t="str">
+        <v>24,980,072</v>
       </c>
     </row>
     <row r="16">
@@ -580,10 +634,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <v>途游中国象棋</v>
+        <v>推理学院(狼人杀)</v>
       </c>
       <c r="C16" t="str">
-        <v>在线途游(北京)科技有限公司</v>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D16" t="str">
+        <v>cn.ss911.android.nearme.gamecenter</v>
+      </c>
+      <c r="E16" t="str">
+        <v>1,103,509</v>
       </c>
     </row>
     <row r="17">
@@ -591,10 +651,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>欢乐五子棋</v>
+        <v>语玩约会交友聊天室</v>
       </c>
       <c r="C17" t="str">
-        <v>杭州破晓网络科技有限公司</v>
+        <v>贵阳朗玛信息技术股份有限公司北京分公司</v>
+      </c>
+      <c r="D17" t="str">
+        <v>cn.longmaster.pengpeng</v>
+      </c>
+      <c r="E17" t="str">
+        <v>29,665,812</v>
       </c>
     </row>
     <row r="18">
@@ -602,10 +668,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v>别点白格子</v>
+        <v>谁是卧底</v>
       </c>
       <c r="C18" t="str">
-        <v>邝锐</v>
+        <v>华录文化产业有限公司</v>
+      </c>
+      <c r="D18" t="str">
+        <v>com.qbankilltext.baidu</v>
+      </c>
+      <c r="E18" t="str">
+        <v>3,034,675</v>
       </c>
     </row>
     <row r="19">
@@ -613,10 +685,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>全屏五子棋</v>
+        <v>推理学院(狼人杀)</v>
       </c>
       <c r="C19" t="str">
-        <v>祝新春</v>
+        <v>重庆海游科技有限公司</v>
+      </c>
+      <c r="D19" t="str">
+        <v>cn.ss911.android.huawei</v>
+      </c>
+      <c r="E19" t="str">
+        <v>564,358</v>
       </c>
     </row>
     <row r="20">
@@ -624,10 +702,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>五子棋</v>
+        <v>杀神</v>
       </c>
       <c r="C20" t="str">
-        <v>董延盟</v>
+        <v>乐赢互动</v>
+      </c>
+      <c r="D20" t="str">
+        <v>com.lyhd.godkiller.baidu</v>
+      </c>
+      <c r="E20" t="str">
+        <v>20,600</v>
       </c>
     </row>
     <row r="21">
@@ -635,10 +719,543 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <v>五子棋</v>
+        <v>天天狼人杀</v>
       </c>
       <c r="C21" t="str">
-        <v>dsaoneos</v>
+        <v>沈阳美嘉房地产咨询有限公司</v>
+      </c>
+      <c r="D21" t="str">
+        <v>com.sdbean.werewolf</v>
+      </c>
+      <c r="E21" t="str">
+        <v>27,432,347</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>手狼狼人杀</v>
+      </c>
+      <c r="C22" t="str">
+        <v>西安雪狼网络科技有限公司</v>
+      </c>
+      <c r="D22" t="str">
+        <v>com.mg.werewolfandroid</v>
+      </c>
+      <c r="E22" t="str">
+        <v>1,947,015</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>竞技狼人杀</v>
+      </c>
+      <c r="C23" t="str">
+        <v>重庆鸽了吧科技有限公司</v>
+      </c>
+      <c r="D23" t="str">
+        <v>com.diedfish.games.werewolf</v>
+      </c>
+      <c r="E23" t="str">
+        <v>824,635</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>狼人杀</v>
+      </c>
+      <c r="C24" t="str">
+        <v>游视秀科技</v>
+      </c>
+      <c r="D24" t="str">
+        <v>com.dashenkill</v>
+      </c>
+      <c r="E24" t="str">
+        <v>53,302</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>终极狼人杀</v>
+      </c>
+      <c r="C25" t="str">
+        <v>北京心橙互联信息技术有限公司</v>
+      </c>
+      <c r="D25" t="str">
+        <v>cn.orangelab.werewolf</v>
+      </c>
+      <c r="E25" t="str">
+        <v>8,733</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>妹型杀器</v>
+      </c>
+      <c r="C26" t="str">
+        <v>深圳优依购互娱科技有限公司</v>
+      </c>
+      <c r="D26" t="str">
+        <v>com.moe.niceshot.baidu</v>
+      </c>
+      <c r="E26" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>你画我猜</v>
+      </c>
+      <c r="C27" t="str">
+        <v>君玲天下工作室</v>
+      </c>
+      <c r="D27" t="str">
+        <v>com.hpsfcs.drawadsdksnac.wxl</v>
+      </c>
+      <c r="E27" t="str">
+        <v>7,260</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Shift狼人杀你画我猜</v>
+      </c>
+      <c r="C28" t="str">
+        <v>上海小鲸信息科技有限公司</v>
+      </c>
+      <c r="D28" t="str">
+        <v>com.xjshift.android</v>
+      </c>
+      <c r="E28" t="str">
+        <v>201,031</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>鱼泡泡</v>
+      </c>
+      <c r="C29" t="str">
+        <v>上海鱼泡泡信息科技有限公司</v>
+      </c>
+      <c r="D29" t="str">
+        <v>cn.yupaopao.crop</v>
+      </c>
+      <c r="E29" t="str">
+        <v>3,709,926</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>狼人杀</v>
+      </c>
+      <c r="C30" t="str">
+        <v>杭州游卡网络技术有限公司</v>
+      </c>
+      <c r="D30" t="str">
+        <v>com.youka.werewolfkill</v>
+      </c>
+      <c r="E30" t="str">
+        <v>5,574</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>杀手online(逻辑推理杀人游...</v>
+      </c>
+      <c r="C31" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D31" t="str">
+        <v>cn.ss911.android.qihu</v>
+      </c>
+      <c r="E31" t="str">
+        <v>340,790</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <v>单机僵尸杀人游戏</v>
+      </c>
+      <c r="C32" t="str">
+        <v>武汉东方恒泰游戏</v>
+      </c>
+      <c r="D32" t="str">
+        <v>com.hdtjysge.hdutegshye</v>
+      </c>
+      <c r="E32" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>谁是卧底Online</v>
+      </c>
+      <c r="C33" t="str">
+        <v>武汉微派网络科技有限公司</v>
+      </c>
+      <c r="D33" t="str">
+        <v>com.wepie.wespy</v>
+      </c>
+      <c r="E33" t="str">
+        <v>23,678,930</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <v>狼人游戏</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Future</v>
+      </c>
+      <c r="D34" t="str">
+        <v>com.genius.werewolfgame</v>
+      </c>
+      <c r="E34" t="str">
+        <v>375,423</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <v>狼人模拟器</v>
+      </c>
+      <c r="C35" t="str">
+        <v>广州市高新产业发展有限公司</v>
+      </c>
+      <c r="D35" t="str">
+        <v>com.werewolfsimulator.sur</v>
+      </c>
+      <c r="E35" t="str">
+        <v>28,962</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>狼人游戏</v>
+      </c>
+      <c r="C36" t="str">
+        <v>团林网络</v>
+      </c>
+      <c r="D36" t="str">
+        <v>air.com.tuanlin.langrenyouxi</v>
+      </c>
+      <c r="E36" t="str">
+        <v>60,142</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <v>饭局狼人杀</v>
+      </c>
+      <c r="C37" t="str">
+        <v>天津爱米未科技有限公司</v>
+      </c>
+      <c r="D37" t="str">
+        <v>com.mewe.wolf</v>
+      </c>
+      <c r="E37" t="str">
+        <v>58,778</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <v>狼人杀宝典</v>
+      </c>
+      <c r="C38" t="str">
+        <v>方俊</v>
+      </c>
+      <c r="D38" t="str">
+        <v>com.dream.werewolf</v>
+      </c>
+      <c r="E38" t="str">
+        <v>39,225</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <v>狼人之夜 免费版</v>
+      </c>
+      <c r="C39" t="str">
+        <v>wolfgame</v>
+      </c>
+      <c r="D39" t="str">
+        <v>com.zlj.wolfgame.q</v>
+      </c>
+      <c r="E39" t="str">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <v>派派</v>
+      </c>
+      <c r="C40" t="str">
+        <v>北京畅聊天下科技股份有限公司</v>
+      </c>
+      <c r="D40" t="str">
+        <v>com.ifreetalk.ftalk</v>
+      </c>
+      <c r="E40" t="str">
+        <v>112,720,220</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <v>快乐狼人杀</v>
+      </c>
+      <c r="C41" t="str">
+        <v>北京四三九九信息科技有限公司</v>
+      </c>
+      <c r="D41" t="str">
+        <v>com.jingmo.hllrs</v>
+      </c>
+      <c r="E41" t="str">
+        <v>124,330</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>41</v>
+      </c>
+      <c r="B42" t="str">
+        <v>跳跳狼人杀</v>
+      </c>
+      <c r="C42" t="str">
+        <v>北京趣点移动科技有限公司</v>
+      </c>
+      <c r="D42" t="str">
+        <v>com.funduemobile.funtrading</v>
+      </c>
+      <c r="E42" t="str">
+        <v>38,663</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>42</v>
+      </c>
+      <c r="B43" t="str">
+        <v>天黑请闭眼</v>
+      </c>
+      <c r="C43" t="str">
+        <v>饭团游戏</v>
+      </c>
+      <c r="D43" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E43" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <v>触手直播</v>
+      </c>
+      <c r="C44" t="str">
+        <v>杭州开迅科技有限公司</v>
+      </c>
+      <c r="D44" t="str">
+        <v>com.kascend.chushou</v>
+      </c>
+      <c r="E44" t="str">
+        <v>90,673,312</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <v>狼人杀辅助</v>
+      </c>
+      <c r="C45" t="str">
+        <v>刘海鹏</v>
+      </c>
+      <c r="D45" t="str">
+        <v>com.megatech.wolfkillhelper.wolfkillertool</v>
+      </c>
+      <c r="E45" t="str">
+        <v>34,129</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>45</v>
+      </c>
+      <c r="B46" t="str">
+        <v>一起狼人杀</v>
+      </c>
+      <c r="C46" t="str">
+        <v>友际无限（北京）科技有限公司</v>
+      </c>
+      <c r="D46" t="str">
+        <v>qsbk.app.werewolf</v>
+      </c>
+      <c r="E46" t="str">
+        <v>41,284</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>46</v>
+      </c>
+      <c r="B47" t="str">
+        <v>我叫MT英雄杀</v>
+      </c>
+      <c r="C47" t="str">
+        <v>北京正越银河网络科技有限公司</v>
+      </c>
+      <c r="D47" t="str">
+        <v>com.mtyxs.yinhe.aligames</v>
+      </c>
+      <c r="E47" t="str">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>47</v>
+      </c>
+      <c r="B48" t="str">
+        <v>狼人杀最新版</v>
+      </c>
+      <c r="C48" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D48" t="str">
+        <v>dtfr.jhyg.ijuo</v>
+      </c>
+      <c r="E48" t="str">
+        <v>6,477</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>48</v>
+      </c>
+      <c r="B49" t="str">
+        <v>狼人杀助手</v>
+      </c>
+      <c r="C49" t="str">
+        <v>黄金宝</v>
+      </c>
+      <c r="D49" t="str">
+        <v>com.YouMeng.Werwolf</v>
+      </c>
+      <c r="E49" t="str">
+        <v>20,571</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>49</v>
+      </c>
+      <c r="B50" t="str">
+        <v>狼人之夜</v>
+      </c>
+      <c r="C50" t="str">
+        <v>广州沙丁鱼网络科技有限公司</v>
+      </c>
+      <c r="D50" t="str">
+        <v>com.zlj.wolfgame</v>
+      </c>
+      <c r="E50" t="str">
+        <v>981,471</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>50</v>
+      </c>
+      <c r="B51" t="str">
+        <v>两面</v>
+      </c>
+      <c r="C51" t="str">
+        <v>北京两面网络科技有限公司</v>
+      </c>
+      <c r="D51" t="str">
+        <v>com.ilun.secret</v>
+      </c>
+      <c r="E51" t="str">
+        <v>10,970,540</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>51</v>
+      </c>
+      <c r="B52" t="str">
+        <v>爆笑杀鸡</v>
+      </c>
+      <c r="C52" t="str">
+        <v>肖燕2</v>
+      </c>
+      <c r="D52" t="str">
+        <v>com.colorme.game.baoxiaoshaji</v>
+      </c>
+      <c r="E52" t="str">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
